--- a/src/test/resources/TestData/LearnAboutSkincare.xlsx
+++ b/src/test/resources/TestData/LearnAboutSkincare.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadee\git\Neostrata\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D2BF7-F14D-4764-8FB3-8527CB5F718F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D6C52-9F4B-4C06-840B-874DA8EA8EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BreadText" sheetId="16" r:id="rId1"/>
-    <sheet name="ViewBtn" sheetId="18" r:id="rId2"/>
-    <sheet name="Header" sheetId="17" r:id="rId3"/>
+    <sheet name="breadText" sheetId="16" r:id="rId1"/>
+    <sheet name="viewBtn" sheetId="18" r:id="rId2"/>
+    <sheet name="header" sheetId="17" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -684,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B478E1-9CA3-4EA8-8484-5ACC681AB206}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96C4E44-1BF3-47DE-AD0C-80D88993D96B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/src/test/resources/TestData/LearnAboutSkincare.xlsx
+++ b/src/test/resources/TestData/LearnAboutSkincare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadee\git\Neostrata\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D6C52-9F4B-4C06-840B-874DA8EA8EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B9758-DEB9-4845-A6DF-FFB5259C6BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="breadText" sheetId="16" r:id="rId1"/>
@@ -644,7 +644,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B478E1-9CA3-4EA8-8484-5ACC681AB206}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96C4E44-1BF3-47DE-AD0C-80D88993D96B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1278,22 +1278,22 @@
     <hyperlink ref="D19" r:id="rId18" xr:uid="{4B97B83D-82A5-4A48-9CC4-97BC0D151602}"/>
     <hyperlink ref="D20" r:id="rId19" xr:uid="{AD43396D-E441-4AD0-9B02-B4D74643A9F8}"/>
     <hyperlink ref="D21" r:id="rId20" xr:uid="{9E35656D-CDA9-4212-B969-E4F93EE3C88D}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{377AA8EC-C2C7-4F66-9781-95418BD8FC21}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{B1F3533F-5168-418A-83F9-D2BA83F0D6E6}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{84083F4E-DEC5-4ADB-9D29-4D1A83F236FA}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{11246C39-0E2E-43F8-BDD8-80D8BE4EE855}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{E3AC7775-09A2-4810-9352-9E1D5B23B3C3}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{60A2CF1F-A123-4FFA-BF51-3732F6F396F2}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{CABE77EE-56CC-4AD8-B780-63F6FFAA667F}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{3AEDF008-CDBC-447C-8515-F06A18C12DED}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{81352F95-3913-4C8B-A515-934A813E46C4}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{EED213AE-2907-463E-8059-16590C91BAAB}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{60C58D77-8747-419D-919B-6DDBD39DF7CE}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{7A2E60AA-0D3F-43D0-A7E3-0F55AC192DA3}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{4B8C4F19-2A32-4E88-BD66-DBAA2CDF9094}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{28679BE5-489D-44D1-A67B-3CB303B78F45}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{BCD9A0B2-65BC-4A81-B0C8-29F4FE232C50}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{5250DA51-9CA9-4DB6-A3D0-C403AAF36773}"/>
+    <hyperlink ref="D23" r:id="rId21" xr:uid="{B1F3533F-5168-418A-83F9-D2BA83F0D6E6}"/>
+    <hyperlink ref="D24" r:id="rId22" xr:uid="{84083F4E-DEC5-4ADB-9D29-4D1A83F236FA}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{11246C39-0E2E-43F8-BDD8-80D8BE4EE855}"/>
+    <hyperlink ref="D26" r:id="rId24" xr:uid="{E3AC7775-09A2-4810-9352-9E1D5B23B3C3}"/>
+    <hyperlink ref="D27" r:id="rId25" xr:uid="{60A2CF1F-A123-4FFA-BF51-3732F6F396F2}"/>
+    <hyperlink ref="D28" r:id="rId26" xr:uid="{CABE77EE-56CC-4AD8-B780-63F6FFAA667F}"/>
+    <hyperlink ref="D29" r:id="rId27" xr:uid="{3AEDF008-CDBC-447C-8515-F06A18C12DED}"/>
+    <hyperlink ref="D30" r:id="rId28" xr:uid="{81352F95-3913-4C8B-A515-934A813E46C4}"/>
+    <hyperlink ref="D31" r:id="rId29" xr:uid="{EED213AE-2907-463E-8059-16590C91BAAB}"/>
+    <hyperlink ref="D32" r:id="rId30" xr:uid="{60C58D77-8747-419D-919B-6DDBD39DF7CE}"/>
+    <hyperlink ref="D33" r:id="rId31" xr:uid="{7A2E60AA-0D3F-43D0-A7E3-0F55AC192DA3}"/>
+    <hyperlink ref="D34" r:id="rId32" xr:uid="{4B8C4F19-2A32-4E88-BD66-DBAA2CDF9094}"/>
+    <hyperlink ref="D35" r:id="rId33" xr:uid="{28679BE5-489D-44D1-A67B-3CB303B78F45}"/>
+    <hyperlink ref="D36" r:id="rId34" xr:uid="{BCD9A0B2-65BC-4A81-B0C8-29F4FE232C50}"/>
+    <hyperlink ref="D37" r:id="rId35" xr:uid="{5250DA51-9CA9-4DB6-A3D0-C403AAF36773}"/>
+    <hyperlink ref="D22" r:id="rId36" xr:uid="{377AA8EC-C2C7-4F66-9781-95418BD8FC21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
